--- a/bet_report_19-01-2020 to 07-08-2020_150slips.xlsx
+++ b/bet_report_19-01-2020 to 07-08-2020_150slips.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>B1</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>YC(OV45)</t>
+  </si>
+  <si>
+    <t>Handicap(0:0) 2</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +564,7 @@
     <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14">
         <v>1</v>
       </c>
@@ -617,8 +620,13 @@
       </c>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -710,14 +718,26 @@
       <c r="AE2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="13">
-        <f>AF2+AG2</f>
-        <v>0</v>
+      <c r="AF2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,12 +760,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="8">
         <f>K3+L3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
@@ -791,8 +811,16 @@
         <f t="shared" ref="AH3:AH24" si="1">AF3+AG3</f>
         <v>0</v>
       </c>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <f>AI3+AJ3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -884,8 +912,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="8">
+        <f t="shared" ref="AK4:AK25" si="11">AI4+AJ4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -973,8 +1007,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1112,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1163,8 +1209,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1244,8 +1296,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1321,8 +1379,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1406,8 +1470,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1478,13 +1548,21 @@
         <v>0</v>
       </c>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="7">
+        <v>1</v>
+      </c>
       <c r="AH11" s="13">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1564,8 +1642,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1643,8 +1727,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1740,8 +1830,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1833,8 +1929,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1910,8 +2012,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1999,8 +2107,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -2076,8 +2190,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,8 +2267,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2218,8 +2344,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2289,8 +2421,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2382,8 +2520,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -2469,8 +2613,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2544,145 +2694,163 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" ref="B25:J25" si="11">SUM(B3:B24)</f>
+        <f t="shared" ref="B25:J25" si="12">SUM(B3:B24)</f>
         <v>76</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:M25" si="12">SUM(K3:K24)</f>
-        <v>43</v>
+        <f t="shared" ref="K25:M25" si="13">SUM(K3:K24)</f>
+        <v>44</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="12"/>
-        <v>79</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25" si="13">SUM(N3:N24)</f>
+        <f t="shared" ref="N25" si="14">SUM(N3:N24)</f>
         <v>2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25" si="14">SUM(O3:O24)</f>
+        <f t="shared" ref="O25" si="15">SUM(O3:O24)</f>
         <v>10</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" ref="P25" si="15">SUM(P3:P24)</f>
+        <f t="shared" ref="P25" si="16">SUM(P3:P24)</f>
         <v>12</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" ref="Q25" si="16">SUM(Q3:Q24)</f>
+        <f t="shared" ref="Q25" si="17">SUM(Q3:Q24)</f>
         <v>31</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" ref="R25" si="17">SUM(R3:R24)</f>
+        <f t="shared" ref="R25" si="18">SUM(R3:R24)</f>
         <v>13</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" ref="S25" si="18">SUM(S3:S24)</f>
+        <f t="shared" ref="S25" si="19">SUM(S3:S24)</f>
         <v>44</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" ref="T25" si="19">SUM(T3:T24)</f>
+        <f t="shared" ref="T25" si="20">SUM(T3:T24)</f>
         <v>0</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" ref="U25" si="20">SUM(U3:U24)</f>
+        <f t="shared" ref="U25" si="21">SUM(U3:U24)</f>
         <v>2</v>
       </c>
       <c r="V25" s="13">
-        <f t="shared" ref="V25:AH25" si="21">SUM(V3:V24)</f>
+        <f t="shared" ref="V25:AK25" si="22">SUM(V3:V24)</f>
         <v>2</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Y25" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AB25" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AE25" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AG25" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="AH25" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AI25" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK25" s="13">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
@@ -2703,7 +2871,7 @@
       </c>
       <c r="K26" s="12">
         <f>K25/M25</f>
-        <v>0.54430379746835444</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N26" s="12">
         <f>N25/P25</f>
@@ -2731,22 +2899,27 @@
       </c>
       <c r="AF26" s="12">
         <f>AF25/AH25</f>
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AI26" s="12">
+        <f>AI25/AK25</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+  <mergeCells count="12">
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
